--- a/excel_sheets/macro_tz.xlsx
+++ b/excel_sheets/macro_tz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6a97429bfd31d15/Documents/GitHub/Stock_Markets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marvi\OneDrive\Documents\GitHub\Stock_Markets\excel_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E0DA6E03-EF20-4C3F-AA1B-6CB9CE624B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF691607-E994-40F8-92CC-227EA54767F1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618E2047-215C-4BAD-8599-B361ED4336CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3E751FD4-9AFA-4107-8DDE-1E44AA23F6CE}"/>
   </bookViews>
@@ -116,9 +116,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -156,7 +156,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -262,7 +262,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -404,7 +404,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659F2DDC-944C-4863-982E-07FB27A642DF}">
   <dimension ref="A1:F295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="L192" sqref="L192"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="B295" sqref="B295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6314,7 +6314,7 @@
         <v>45078</v>
       </c>
       <c r="B295">
-        <v>0.32</v>
+        <v>304.00299999999999</v>
       </c>
       <c r="C295">
         <v>127.52</v>
